--- a/assets/PROMOTORA_VILLAGRAN_SA_DE_CV.xlsx
+++ b/assets/PROMOTORA_VILLAGRAN_SA_DE_CV.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="15260" windowHeight="7940"/>
   </bookViews>
   <sheets>
     <sheet name="PVCATAN" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PVCATAN!$C$118:$C$978</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -7648,11 +7653,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8161,48 +8166,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -8493,18 +8498,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I980"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I978"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A303" sqref="A303"/>
+    <sheetView tabSelected="1" topLeftCell="A973" workbookViewId="0">
+      <selection activeCell="H980" sqref="H980"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -33831,18 +33836,13 @@
       </c>
       <c r="I978" s="10"/>
     </row>
-    <row r="980" spans="1:9">
-      <c r="H980" s="9">
-        <f>SUM(H2:H979)</f>
-        <v>2005894.1</v>
-      </c>
-      <c r="I980">
-        <f>SUM(I2:I979)</f>
-        <v>2005894.0999999999</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>